--- a/pred_ohlcv/54_21/2019-10-15 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 ZRX ohlcv.xlsx
@@ -2394,7 +2394,7 @@
         <v>3295.764004050136</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3572.607495949865</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3519.271695949865</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-8848.363395949866</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7953.680295949865</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-6116.972095949865</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-6116.972095949865</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-7397.235147720982</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-6833.619747720983</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-6833.619747720983</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2532.237852279017</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>15554.37975227902</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4468.333352279018</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4468.333352279018</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-7145.741547720982</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-8055.377647720981</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1971.792447720981</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1960.559347720981</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>54941.69955227902</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>44832.8479220838</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>44832.8479220838</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>49437.9322220838</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>63327.8242220838</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>69896.0311220838</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>78627.42552208381</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>83490.4618220838</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>83490.4618220838</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>89319.03792208381</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>91402.66902208381</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>90245.0534220838</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>89905.4758220838</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>57580.4001220838</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>52437.0686220838</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>50727.24352208379</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>39829.68622208379</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>59591.94322208379</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>59591.94322208379</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>59507.59442208379</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>67174.9185220838</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>66134.94262208379</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>70421.65252208378</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>68909.98552208378</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>55969.95362208378</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>44974.38242208378</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>45056.27002208378</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>13618.05542208378</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>385.6445220837795</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>4682.96662208378</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>15548.88322208378</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>14943.58022208378</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>14943.58022208378</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>22977.82502208378</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>22977.82502208378</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>75024.01048178526</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>71363.73868178525</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>82520.11512794658</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>83428.78642794659</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>76141.67282794659</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>57873.98132794659</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-105974.0335113978</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-105974.0335113978</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-105930.7110113978</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-128150.3834113978</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-128429.2411113978</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-127040.6007113978</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-103401.5975113978</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-125105.5582674714</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-125554.2350674714</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-126626.1722674714</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-149354.5755674714</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-115565.6264674714</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-107674.7806511741</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-107769.9846511741</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-108559.4900511741</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-109526.5932326556</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-106848.9605326556</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-104386.9262825243</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-99539.52248252432</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-31619.15658252432</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>5564.774416782321</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1449.084416782322</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1449.084416782322</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-2712.721983217679</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-16337.9062062946</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-16333.2250062946</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-16662.2250062946</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-16697.4644062946</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-140034.5882201589</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-135966.2459275079</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-136788.2459275079</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-136788.2459275079</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-146337.7184222447</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-146337.7184222447</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-141075.5244222448</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-50108.07718469844</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-39839.10207180306</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-49410.41857180306</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-31608.22327180306</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-32190.22527180306</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-42171.69537180306</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-41626.03907180305</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-41692.50129111845</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-43886.69439111845</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-39011.24369111845</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-40341.38059111845</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-40383.87479111845</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-53659.48719111845</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 ZRX ohlcv.xlsx
@@ -4760,7 +4760,7 @@
         <v>54941.69955227902</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>44832.8479220838</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>44832.8479220838</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>49437.9322220838</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>63327.8242220838</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>69896.0311220838</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>78627.42552208381</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>83490.4618220838</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>83490.4618220838</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>89319.03792208381</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>91402.66902208381</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>90245.0534220838</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>89905.4758220838</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>57580.4001220838</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>52437.0686220838</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>50727.24352208379</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>39829.68622208379</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>59591.94322208379</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>59591.94322208379</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>59507.59442208379</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>67174.9185220838</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>66134.94262208379</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>70421.65252208378</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>68909.98552208378</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>55969.95362208378</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>44974.38242208378</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>45056.27002208378</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>13618.05542208378</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>385.6445220837795</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>4682.96662208378</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>15548.88322208378</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>14943.58022208378</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>14943.58022208378</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>22977.82502208378</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>22977.82502208378</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>77610.68862208376</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>87754.81528178525</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>75002.00378178526</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>75024.01048178526</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>75024.01048178526</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>71363.73868178525</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>56715.31678178525</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>57335.66218178525</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>53144.89830238827</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>106182.0057279466</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>82520.11512794658</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>83428.78642794659</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>76141.67282794659</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>57873.98132794659</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>43939.99502794658</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-5590.613906659019</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-105974.0335113978</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-105974.0335113978</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-105930.7110113978</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-128150.3834113978</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-128429.2411113978</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-127040.6007113978</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-103401.5975113978</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-125554.2350674714</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-126626.1722674714</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-149354.5755674714</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-115565.6264674714</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-113141.4227674714</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-104497.9949721165</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-106525.1788511741</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-107674.7806511741</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-107769.9846511741</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-108559.4900511741</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-109526.5932326556</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-106848.9605326556</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-104386.9262825243</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-99539.52248252432</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-95350.67048252432</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-95350.67048252432</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-83094.75128252432</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-31619.15658252432</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>5564.774416782321</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1449.084416782322</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1449.084416782322</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-2712.721983217679</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-16337.9062062946</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-16333.2250062946</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-16662.2250062946</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-16697.4644062946</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-145437.9489201588</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-140034.5882201589</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-142419.4638201589</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-141434.7375275079</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-141434.7375275079</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-141665.2166275079</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-143898.8249275079</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-137576.8029222447</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-134339.5977222447</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-134339.5977222447</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-134339.5977222447</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-133114.7421222447</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-133114.7421222447</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-162101.8011222447</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-161886.2523837832</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-161966.2523837832</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-160820.3282837832</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-160820.3282837832</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-160820.3282837832</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-158003.5592837832</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-158003.5592837832</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-182474.6879225587</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-182799.1797225587</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-182799.1797225587</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-182799.1797225587</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-184421.9165225587</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-185922.2401225587</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-184811.2304225587</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-167329.0369225587</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-167329.0369225587</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-176039.0827225587</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-176039.0827225587</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-175869.0168225587</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-170333.9825225587</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
